--- a/ky/downloads/data-excel/8.5.2.xlsx
+++ b/ky/downloads/data-excel/8.5.2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="61">
   <si>
     <t>15-19</t>
   </si>
@@ -76,9 +76,6 @@
     <t>(in percent)</t>
   </si>
   <si>
-    <t>8.5.2 Total unemployment rate by sex, age and persons with disability</t>
-  </si>
-  <si>
     <t>8.5.2 Уровень общей безработицы в разбивке по полу и возрасту</t>
   </si>
   <si>
@@ -197,6 +194,9 @@
   </si>
   <si>
     <t xml:space="preserve"> по возрастным группам, лет:</t>
+  </si>
+  <si>
+    <t>8.5.2 Total unemployment rate by sex, age</t>
   </si>
 </sst>
 </file>
@@ -206,7 +206,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,14 +296,6 @@
       <family val="1"/>
     </font>
     <font>
-      <i/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -316,6 +308,32 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -373,7 +391,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -407,7 +425,6 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -415,11 +432,25 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -726,11 +757,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S43"/>
+  <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -738,15 +767,15 @@
     <col min="3" max="3" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -763,7 +792,7 @@
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -788,7 +817,7 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -807,7 +836,7 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
@@ -865,16 +894,19 @@
       <c r="S4" s="9">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4" s="9">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D5" s="12">
         <v>8.1999999999999993</v>
@@ -924,202 +956,212 @@
       <c r="S5" s="11">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="T5" s="11">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="25">
+        <v>9</v>
+      </c>
+      <c r="E6" s="25">
+        <v>9.4</v>
+      </c>
+      <c r="F6" s="25">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G6" s="25">
+        <v>9.9</v>
+      </c>
+      <c r="H6" s="25">
+        <v>9.9</v>
+      </c>
+      <c r="I6" s="25">
+        <v>9.5</v>
+      </c>
+      <c r="J6" s="25">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="K6" s="25">
+        <v>9.5</v>
+      </c>
+      <c r="L6" s="25">
+        <v>9</v>
+      </c>
+      <c r="M6" s="25">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="N6" s="25">
+        <v>8.9</v>
+      </c>
+      <c r="O6" s="25">
+        <v>6.9</v>
+      </c>
+      <c r="P6" s="25">
+        <v>6.2</v>
+      </c>
+      <c r="Q6" s="25">
+        <v>6.7</v>
+      </c>
+      <c r="R6" s="16">
+        <v>6.3</v>
+      </c>
+      <c r="S6" s="16">
+        <v>6.1</v>
+      </c>
+      <c r="T6" s="16">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="12">
+      <c r="C7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="25">
+        <v>7.6</v>
+      </c>
+      <c r="E7" s="25">
+        <v>7.3</v>
+      </c>
+      <c r="F7" s="25">
+        <v>7.4</v>
+      </c>
+      <c r="G7" s="25">
+        <v>7.7</v>
+      </c>
+      <c r="H7" s="25">
+        <v>7.6</v>
+      </c>
+      <c r="I7" s="25">
+        <v>7.7</v>
+      </c>
+      <c r="J7" s="25">
+        <v>7.4</v>
+      </c>
+      <c r="K7" s="25">
+        <v>7</v>
+      </c>
+      <c r="L7" s="25">
+        <v>6.5</v>
+      </c>
+      <c r="M7" s="25">
+        <v>6.2</v>
+      </c>
+      <c r="N7" s="25">
+        <v>5.6</v>
+      </c>
+      <c r="O7" s="25">
+        <v>5.7</v>
+      </c>
+      <c r="P7" s="25">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="25">
+        <v>5.2</v>
+      </c>
+      <c r="R7" s="16">
+        <v>4.7</v>
+      </c>
+      <c r="S7" s="16">
+        <v>4</v>
+      </c>
+      <c r="T7" s="16">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+    </row>
+    <row r="9" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="21">
+        <v>10.26835757412656</v>
+      </c>
+      <c r="E9" s="21">
+        <v>11.093733433544566</v>
+      </c>
+      <c r="F9" s="21">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G9" s="21">
+        <v>10.6</v>
+      </c>
+      <c r="H9" s="21">
+        <v>10.6</v>
+      </c>
+      <c r="I9" s="21">
+        <v>10.8</v>
+      </c>
+      <c r="J9" s="21">
+        <v>12.7</v>
+      </c>
+      <c r="K9" s="21">
+        <v>12.6</v>
+      </c>
+      <c r="L9" s="21">
+        <v>10.9</v>
+      </c>
+      <c r="M9" s="21">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="N9" s="21">
+        <v>9.9</v>
+      </c>
+      <c r="O9" s="21">
         <v>9</v>
       </c>
-      <c r="E6" s="12">
-        <v>9.4</v>
-      </c>
-      <c r="F6" s="12">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="G6" s="12">
-        <v>9.9</v>
-      </c>
-      <c r="H6" s="12">
-        <v>9.9</v>
-      </c>
-      <c r="I6" s="12">
-        <v>9.5</v>
-      </c>
-      <c r="J6" s="12">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="K6" s="12">
-        <v>9.5</v>
-      </c>
-      <c r="L6" s="12">
-        <v>9</v>
-      </c>
-      <c r="M6" s="12">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="N6" s="12">
-        <v>8.9</v>
-      </c>
-      <c r="O6" s="12">
-        <v>6.9</v>
-      </c>
-      <c r="P6" s="12">
-        <v>6.2</v>
-      </c>
-      <c r="Q6" s="12">
-        <v>6.7</v>
-      </c>
-      <c r="R6" s="17">
-        <v>6.3</v>
-      </c>
-      <c r="S6" s="17">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="12">
-        <v>7.6</v>
-      </c>
-      <c r="E7" s="12">
-        <v>7.3</v>
-      </c>
-      <c r="F7" s="12">
-        <v>7.4</v>
-      </c>
-      <c r="G7" s="12">
-        <v>7.7</v>
-      </c>
-      <c r="H7" s="12">
-        <v>7.6</v>
-      </c>
-      <c r="I7" s="12">
-        <v>7.7</v>
-      </c>
-      <c r="J7" s="12">
-        <v>7.4</v>
-      </c>
-      <c r="K7" s="12">
-        <v>7</v>
-      </c>
-      <c r="L7" s="12">
-        <v>6.5</v>
-      </c>
-      <c r="M7" s="12">
-        <v>6.2</v>
-      </c>
-      <c r="N7" s="12">
-        <v>5.6</v>
-      </c>
-      <c r="O7" s="12">
-        <v>5.7</v>
-      </c>
-      <c r="P7" s="12">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="12">
-        <v>5.2</v>
-      </c>
-      <c r="R7" s="17">
-        <v>4.7</v>
-      </c>
-      <c r="S7" s="17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="19"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="14">
-        <v>10.3</v>
-      </c>
-      <c r="E9" s="14">
-        <v>11.1</v>
-      </c>
-      <c r="F9" s="14">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="G9" s="14">
-        <v>10.6</v>
-      </c>
-      <c r="H9" s="14">
-        <v>10.6</v>
-      </c>
-      <c r="I9" s="14">
-        <v>10.8</v>
-      </c>
-      <c r="J9" s="14">
-        <v>12.7</v>
-      </c>
-      <c r="K9" s="14">
-        <v>12.6</v>
-      </c>
-      <c r="L9" s="14">
-        <v>10.9</v>
-      </c>
-      <c r="M9" s="14">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="N9" s="14">
-        <v>9.9</v>
-      </c>
-      <c r="O9" s="14">
-        <v>9</v>
-      </c>
-      <c r="P9" s="14">
+      <c r="P9" s="21">
         <v>8.1999999999999993</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="21">
         <v>7.4</v>
       </c>
       <c r="R9" s="11">
@@ -1128,53 +1170,60 @@
       <c r="S9" s="11">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T9" s="11">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14">
+      <c r="D10" s="13">
+        <v>14.010147627737124</v>
+      </c>
+      <c r="E10" s="13">
+        <v>14.537276242442312</v>
+      </c>
+      <c r="F10" s="13">
         <v>14.8</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <v>15.8</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <v>14</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="13">
         <v>14.1</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="13">
         <v>18.399999999999999</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="13">
         <v>18.7</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="13">
         <v>16.5</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="13">
         <v>15.3</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="13">
         <v>16</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O10" s="13">
         <v>12.2</v>
       </c>
-      <c r="P10" s="14">
+      <c r="P10" s="13">
         <v>11.5</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="Q10" s="13">
         <v>10.9</v>
       </c>
       <c r="R10" s="10">
@@ -1183,53 +1232,60 @@
       <c r="S10" s="10">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T10" s="10">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14">
+      <c r="D11" s="13">
+        <v>7.4268881391612336</v>
+      </c>
+      <c r="E11" s="13">
+        <v>8.641708044689933</v>
+      </c>
+      <c r="F11" s="13">
         <v>7.2</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="13">
         <v>7.2</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="13">
         <v>8.4</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="13">
         <v>8.6999999999999993</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="13">
         <v>9.8000000000000007</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="13">
         <v>9.6</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="13">
         <v>7.6</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="13">
         <v>7.1</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="13">
         <v>6.3</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O11" s="13">
         <v>7.3</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P11" s="13">
         <v>6.7</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="Q11" s="13">
         <v>5.9</v>
       </c>
       <c r="R11" s="10">
@@ -1238,57 +1294,60 @@
       <c r="S11" s="10">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="T11" s="10">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="C12" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="14">
-        <v>6.8</v>
-      </c>
-      <c r="E12" s="14">
-        <v>6.9</v>
-      </c>
-      <c r="F12" s="14">
+      <c r="D12" s="21">
+        <v>6.7860138639144125</v>
+      </c>
+      <c r="E12" s="21">
+        <v>6.9098718932998198</v>
+      </c>
+      <c r="F12" s="21">
         <v>7</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="21">
         <v>7.8</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="21">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="21">
         <v>8.4</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="21">
         <v>8.1999999999999993</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="21">
         <v>7.6</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="21">
         <v>7.7</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="21">
         <v>7.5</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N12" s="21">
         <v>7.2</v>
       </c>
-      <c r="O12" s="14">
+      <c r="O12" s="21">
         <v>6.2</v>
       </c>
-      <c r="P12" s="14">
+      <c r="P12" s="21">
         <v>5.5</v>
       </c>
-      <c r="Q12" s="14">
+      <c r="Q12" s="21">
         <v>11</v>
       </c>
       <c r="R12" s="11">
@@ -1297,53 +1356,60 @@
       <c r="S12" s="11">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T12" s="11">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14">
+      <c r="D13" s="13">
+        <v>8.7007714934632983</v>
+      </c>
+      <c r="E13" s="13">
+        <v>7.976176258007273</v>
+      </c>
+      <c r="F13" s="13">
         <v>8.5</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="13">
         <v>8.9</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="13">
         <v>9.4</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="13">
         <v>9</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="13">
         <v>10.3</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="13">
         <v>10</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="13">
         <v>9.9</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="13">
         <v>10.3</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N13" s="13">
         <v>10.5</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O13" s="13">
         <v>9.1</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="13">
         <v>7.9</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="Q13" s="13">
         <v>13.2</v>
       </c>
       <c r="R13" s="10">
@@ -1352,53 +1418,60 @@
       <c r="S13" s="10">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T13" s="10">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14">
+      <c r="D14" s="13">
+        <v>5.2975239895008253</v>
+      </c>
+      <c r="E14" s="13">
+        <v>6.0474615954769106</v>
+      </c>
+      <c r="F14" s="13">
         <v>5.9</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="13">
         <v>7.1</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="13">
         <v>7.3</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="13">
         <v>7.9</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="13">
         <v>6.7</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="13">
         <v>6</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="13">
         <v>6.1</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M14" s="13">
         <v>5.8</v>
       </c>
-      <c r="N14" s="14">
+      <c r="N14" s="13">
         <v>5.3</v>
       </c>
-      <c r="O14" s="14">
+      <c r="O14" s="13">
         <v>4.7</v>
       </c>
-      <c r="P14" s="14">
+      <c r="P14" s="13">
         <v>4.2</v>
       </c>
-      <c r="Q14" s="14">
+      <c r="Q14" s="13">
         <v>9.6999999999999993</v>
       </c>
       <c r="R14" s="10">
@@ -1407,57 +1480,60 @@
       <c r="S14" s="10">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="T14" s="10">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="C15" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="14">
-        <v>7</v>
-      </c>
-      <c r="E15" s="14">
-        <v>7.2</v>
-      </c>
-      <c r="F15" s="14">
+      <c r="D15" s="21">
+        <v>7.0055745963968574</v>
+      </c>
+      <c r="E15" s="21">
+        <v>7.171305434849601</v>
+      </c>
+      <c r="F15" s="21">
         <v>9.4</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="21">
         <v>10.199999999999999</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="21">
         <v>9.6999999999999993</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="21">
         <v>9.6</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="21">
         <v>9.5</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="21">
         <v>9.3000000000000007</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="21">
         <v>9.1</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M15" s="21">
         <v>8.9</v>
       </c>
-      <c r="N15" s="14">
+      <c r="N15" s="21">
         <v>8.6999999999999993</v>
       </c>
-      <c r="O15" s="14">
+      <c r="O15" s="21">
         <v>8.4</v>
       </c>
-      <c r="P15" s="14">
+      <c r="P15" s="21">
         <v>7.8</v>
       </c>
-      <c r="Q15" s="14">
+      <c r="Q15" s="21">
         <v>7.4</v>
       </c>
       <c r="R15" s="11">
@@ -1466,53 +1542,60 @@
       <c r="S15" s="11">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T15" s="11">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14">
+      <c r="D16" s="13">
+        <v>7.4182609130907338</v>
+      </c>
+      <c r="E16" s="13">
+        <v>7.7324137052951603</v>
+      </c>
+      <c r="F16" s="13">
         <v>11.1</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="13">
         <v>10.1</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="13">
         <v>10.8</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="13">
         <v>8.9</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="13">
         <v>9.4</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="13">
         <v>10.1</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L16" s="13">
         <v>9.6</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M16" s="13">
         <v>8.5</v>
       </c>
-      <c r="N16" s="14">
+      <c r="N16" s="13">
         <v>8</v>
       </c>
-      <c r="O16" s="14">
+      <c r="O16" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="P16" s="14">
+      <c r="P16" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="Q16" s="14">
+      <c r="Q16" s="13">
         <v>6.1</v>
       </c>
       <c r="R16" s="10">
@@ -1521,53 +1604,60 @@
       <c r="S16" s="10">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T16" s="10">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14">
+      <c r="D17" s="13">
+        <v>6.7168850444558652</v>
+      </c>
+      <c r="E17" s="13">
+        <v>6.7799982744395928</v>
+      </c>
+      <c r="F17" s="13">
         <v>8.1999999999999993</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="13">
         <v>10.3</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="13">
         <v>8.9</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="13">
         <v>10</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="13">
         <v>9.5</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="13">
         <v>8.6999999999999993</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="13">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M17" s="13">
         <v>9.1</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N17" s="13">
         <v>9</v>
       </c>
-      <c r="O17" s="14">
+      <c r="O17" s="13">
         <v>10.199999999999999</v>
       </c>
-      <c r="P17" s="14">
+      <c r="P17" s="13">
         <v>9.4</v>
       </c>
-      <c r="Q17" s="14">
+      <c r="Q17" s="13">
         <v>8.1999999999999993</v>
       </c>
       <c r="R17" s="10">
@@ -1576,57 +1666,60 @@
       <c r="S17" s="10">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="T17" s="10">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="C18" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="14">
-        <v>11.1</v>
-      </c>
-      <c r="E18" s="14">
-        <v>11.2</v>
-      </c>
-      <c r="F18" s="14">
+      <c r="D18" s="21">
+        <v>11.135546474787667</v>
+      </c>
+      <c r="E18" s="21">
+        <v>11.240282187743009</v>
+      </c>
+      <c r="F18" s="21">
         <v>10</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="21">
         <v>10.3</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="21">
         <v>10.3</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="21">
         <v>10.199999999999999</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="21">
         <v>9.1</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="21">
         <v>9.6999999999999993</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L18" s="21">
         <v>9.3000000000000007</v>
       </c>
-      <c r="M18" s="14">
+      <c r="M18" s="21">
         <v>9</v>
       </c>
-      <c r="N18" s="14">
+      <c r="N18" s="21">
         <v>8.8000000000000007</v>
       </c>
-      <c r="O18" s="14">
+      <c r="O18" s="21">
         <v>8.8000000000000007</v>
       </c>
-      <c r="P18" s="14">
+      <c r="P18" s="21">
         <v>8.3000000000000007</v>
       </c>
-      <c r="Q18" s="14">
+      <c r="Q18" s="21">
         <v>7.3</v>
       </c>
       <c r="R18" s="11">
@@ -1635,53 +1728,60 @@
       <c r="S18" s="11">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T18" s="11">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14">
+      <c r="D19" s="13">
+        <v>13.706774644660547</v>
+      </c>
+      <c r="E19" s="13">
+        <v>15.10856575902277</v>
+      </c>
+      <c r="F19" s="13">
         <v>14.7</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="13">
         <v>14.7</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="13">
         <v>14.7</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="13">
         <v>16.3</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="13">
         <v>14.2</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="13">
         <v>15.4</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L19" s="13">
         <v>13.7</v>
       </c>
-      <c r="M19" s="14">
+      <c r="M19" s="13">
         <v>14.6</v>
       </c>
-      <c r="N19" s="14">
+      <c r="N19" s="13">
         <v>12.3</v>
       </c>
-      <c r="O19" s="14">
+      <c r="O19" s="13">
         <v>15</v>
       </c>
-      <c r="P19" s="14">
+      <c r="P19" s="13">
         <v>11.1</v>
       </c>
-      <c r="Q19" s="14">
+      <c r="Q19" s="13">
         <v>12.4</v>
       </c>
       <c r="R19" s="10">
@@ -1690,53 +1790,60 @@
       <c r="S19" s="10">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T19" s="10">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14">
+      <c r="D20" s="13">
+        <v>9.7902826334714685</v>
+      </c>
+      <c r="E20" s="13">
+        <v>9.197616317827368</v>
+      </c>
+      <c r="F20" s="13">
         <v>7.6</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="13">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="13">
         <v>8.1</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="13">
         <v>7.4</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="13">
         <v>6.8</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="13">
         <v>7.4</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L20" s="13">
         <v>7.6</v>
       </c>
-      <c r="M20" s="14">
+      <c r="M20" s="13">
         <v>6.6</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N20" s="13">
         <v>7.1</v>
       </c>
-      <c r="O20" s="14">
+      <c r="O20" s="13">
         <v>6.2</v>
       </c>
-      <c r="P20" s="14">
+      <c r="P20" s="13">
         <v>7.1</v>
       </c>
-      <c r="Q20" s="14">
+      <c r="Q20" s="13">
         <v>5.2</v>
       </c>
       <c r="R20" s="10">
@@ -1745,57 +1852,60 @@
       <c r="S20" s="10">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="T20" s="10">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="C21" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="14">
-        <v>5.4</v>
-      </c>
-      <c r="E21" s="14">
+      <c r="D21" s="21">
+        <v>5.3746258404491023</v>
+      </c>
+      <c r="E21" s="21">
+        <v>5.4987044591221146</v>
+      </c>
+      <c r="F21" s="21">
+        <v>6.6</v>
+      </c>
+      <c r="G21" s="21">
+        <v>6.61</v>
+      </c>
+      <c r="H21" s="21">
+        <v>6.6</v>
+      </c>
+      <c r="I21" s="21">
+        <v>6.8</v>
+      </c>
+      <c r="J21" s="21">
+        <v>6.3</v>
+      </c>
+      <c r="K21" s="21">
+        <v>6.6</v>
+      </c>
+      <c r="L21" s="21">
+        <v>6</v>
+      </c>
+      <c r="M21" s="21">
         <v>5.5</v>
       </c>
-      <c r="F21" s="14">
-        <v>6.6</v>
-      </c>
-      <c r="G21" s="14">
-        <v>6.61</v>
-      </c>
-      <c r="H21" s="14">
-        <v>6.6</v>
-      </c>
-      <c r="I21" s="14">
-        <v>6.8</v>
-      </c>
-      <c r="J21" s="14">
-        <v>6.3</v>
-      </c>
-      <c r="K21" s="14">
-        <v>6.6</v>
-      </c>
-      <c r="L21" s="14">
-        <v>6</v>
-      </c>
-      <c r="M21" s="14">
-        <v>5.5</v>
-      </c>
-      <c r="N21" s="14">
+      <c r="N21" s="21">
         <v>5.0999999999999996</v>
       </c>
-      <c r="O21" s="14">
+      <c r="O21" s="21">
         <v>4.2</v>
       </c>
-      <c r="P21" s="14">
+      <c r="P21" s="21">
         <v>3.5</v>
       </c>
-      <c r="Q21" s="14">
+      <c r="Q21" s="21">
         <v>2.6</v>
       </c>
       <c r="R21" s="11">
@@ -1804,53 +1914,60 @@
       <c r="S21" s="11">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T21" s="11">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14">
+      <c r="D22" s="13">
+        <v>6.2426694708880781</v>
+      </c>
+      <c r="E22" s="13">
+        <v>6.4912074007075411</v>
+      </c>
+      <c r="F22" s="13">
         <v>8.1</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="13">
         <v>7.8</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="13">
         <v>7.8</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="13">
         <v>8.9</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="13">
         <v>7.4</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K22" s="13">
         <v>7.3</v>
       </c>
-      <c r="L22" s="14">
+      <c r="L22" s="13">
         <v>7.7</v>
       </c>
-      <c r="M22" s="14">
+      <c r="M22" s="13">
         <v>7.1</v>
       </c>
-      <c r="N22" s="14">
+      <c r="N22" s="13">
         <v>7.7</v>
       </c>
-      <c r="O22" s="14">
+      <c r="O22" s="13">
         <v>6.6</v>
       </c>
-      <c r="P22" s="14">
+      <c r="P22" s="13">
         <v>4.3</v>
       </c>
-      <c r="Q22" s="14">
+      <c r="Q22" s="13">
         <v>4.0999999999999996</v>
       </c>
       <c r="R22" s="10">
@@ -1859,53 +1976,60 @@
       <c r="S22" s="10">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T22" s="10">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14">
+      <c r="D23" s="13">
+        <v>4.770007802566111</v>
+      </c>
+      <c r="E23" s="13">
+        <v>4.7683002709537226</v>
+      </c>
+      <c r="F23" s="13">
         <v>5.7</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="13">
         <v>5.9</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="13">
         <v>5.8</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I23" s="13">
         <v>5.5</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="13">
         <v>5.6</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K23" s="13">
         <v>6</v>
       </c>
-      <c r="L23" s="14">
+      <c r="L23" s="13">
         <v>4.8</v>
       </c>
-      <c r="M23" s="14">
+      <c r="M23" s="13">
         <v>4.4000000000000004</v>
       </c>
-      <c r="N23" s="14">
+      <c r="N23" s="13">
         <v>3.5</v>
       </c>
-      <c r="O23" s="14">
+      <c r="O23" s="13">
         <v>2.7</v>
       </c>
-      <c r="P23" s="14">
+      <c r="P23" s="13">
         <v>3</v>
       </c>
-      <c r="Q23" s="14">
+      <c r="Q23" s="13">
         <v>1.5</v>
       </c>
       <c r="R23" s="10">
@@ -1914,57 +2038,60 @@
       <c r="S23" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="T23" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C24" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="14">
+      <c r="D24" s="21">
+        <v>5.0779191582615351</v>
+      </c>
+      <c r="E24" s="21">
+        <v>5.4033605606990216</v>
+      </c>
+      <c r="F24" s="21">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G24" s="21">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E24" s="14">
-        <v>5.4</v>
-      </c>
-      <c r="F24" s="14">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G24" s="14">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="H24" s="14">
+      <c r="H24" s="21">
         <v>5</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="21">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="21">
         <v>3.7</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="21">
         <v>3.9</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L24" s="21">
         <v>3.3</v>
       </c>
-      <c r="M24" s="14">
+      <c r="M24" s="21">
         <v>2.8</v>
       </c>
-      <c r="N24" s="14">
+      <c r="N24" s="21">
         <v>2.5</v>
       </c>
-      <c r="O24" s="14">
+      <c r="O24" s="21">
         <v>2.5</v>
       </c>
-      <c r="P24" s="14">
+      <c r="P24" s="21">
         <v>2.5</v>
       </c>
-      <c r="Q24" s="14">
+      <c r="Q24" s="21">
         <v>2.6</v>
       </c>
       <c r="R24" s="11">
@@ -1973,53 +2100,60 @@
       <c r="S24" s="11">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T24" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14">
+      <c r="D25" s="13">
+        <v>5.9469597307173876</v>
+      </c>
+      <c r="E25" s="13">
+        <v>6.9278109821471574</v>
+      </c>
+      <c r="F25" s="13">
         <v>5.7</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="13">
         <v>5.2</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="13">
         <v>5.9</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25" s="13">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="13">
         <v>4.8</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K25" s="13">
         <v>6.5</v>
       </c>
-      <c r="L25" s="14">
+      <c r="L25" s="13">
         <v>5.6</v>
       </c>
-      <c r="M25" s="14">
+      <c r="M25" s="13">
         <v>5</v>
       </c>
-      <c r="N25" s="14">
+      <c r="N25" s="13">
         <v>4.5999999999999996</v>
       </c>
-      <c r="O25" s="14">
+      <c r="O25" s="13">
         <v>3.6</v>
       </c>
-      <c r="P25" s="14">
+      <c r="P25" s="13">
         <v>3.6</v>
       </c>
-      <c r="Q25" s="14">
+      <c r="Q25" s="13">
         <v>3.7</v>
       </c>
       <c r="R25" s="10">
@@ -2028,53 +2162,60 @@
       <c r="S25" s="10">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T25" s="10">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14">
+      <c r="D26" s="13">
+        <v>4.4167022170202772</v>
+      </c>
+      <c r="E26" s="13">
+        <v>4.2172047952187244</v>
+      </c>
+      <c r="F26" s="13">
         <v>4.2</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="13">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="13">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="13">
         <v>2.8</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="13">
         <v>1.7</v>
       </c>
-      <c r="L26" s="14">
+      <c r="L26" s="13">
         <v>1.3</v>
       </c>
-      <c r="M26" s="14">
+      <c r="M26" s="13">
         <v>1.2</v>
       </c>
-      <c r="N26" s="14">
+      <c r="N26" s="13">
         <v>0.9</v>
       </c>
-      <c r="O26" s="14">
+      <c r="O26" s="13">
         <v>1.7</v>
       </c>
-      <c r="P26" s="14">
+      <c r="P26" s="13">
         <v>1.8</v>
       </c>
-      <c r="Q26" s="14">
+      <c r="Q26" s="13">
         <v>1.8</v>
       </c>
       <c r="R26" s="10">
@@ -2083,57 +2224,60 @@
       <c r="S26" s="10">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="T26" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="C27" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="14">
-        <v>13</v>
-      </c>
-      <c r="E27" s="14">
-        <v>12.7</v>
-      </c>
-      <c r="F27" s="14">
+      <c r="D27" s="21">
+        <v>13.027695231923412</v>
+      </c>
+      <c r="E27" s="21">
+        <v>12.655901847412926</v>
+      </c>
+      <c r="F27" s="21">
         <v>10.3</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="21">
         <v>10.199999999999999</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="21">
         <v>9.9</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27" s="21">
         <v>9.9</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="21">
         <v>9.8000000000000007</v>
       </c>
-      <c r="K27" s="14">
+      <c r="K27" s="21">
         <v>8.9</v>
       </c>
-      <c r="L27" s="14">
+      <c r="L27" s="21">
         <v>8.6</v>
       </c>
-      <c r="M27" s="14">
+      <c r="M27" s="21">
         <v>8.4</v>
       </c>
-      <c r="N27" s="14">
+      <c r="N27" s="21">
         <v>8.1</v>
       </c>
-      <c r="O27" s="14">
+      <c r="O27" s="21">
         <v>7.3</v>
       </c>
-      <c r="P27" s="14">
+      <c r="P27" s="21">
         <v>6.6</v>
       </c>
-      <c r="Q27" s="14">
+      <c r="Q27" s="21">
         <v>6.1</v>
       </c>
       <c r="R27" s="11">
@@ -2142,53 +2286,60 @@
       <c r="S27" s="11">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T27" s="11">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14">
+      <c r="D28" s="13">
+        <v>12.4477745386567</v>
+      </c>
+      <c r="E28" s="13">
+        <v>14.28577506641818</v>
+      </c>
+      <c r="F28" s="13">
         <v>11.3</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="13">
         <v>11.4</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="13">
         <v>10.5</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28" s="13">
         <v>9.1</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J28" s="13">
         <v>10.8</v>
       </c>
-      <c r="K28" s="14">
+      <c r="K28" s="13">
         <v>9.6</v>
       </c>
-      <c r="L28" s="14">
+      <c r="L28" s="13">
         <v>8.1999999999999993</v>
       </c>
-      <c r="M28" s="14">
+      <c r="M28" s="13">
         <v>8.9</v>
       </c>
-      <c r="N28" s="14">
+      <c r="N28" s="13">
         <v>9.1</v>
       </c>
-      <c r="O28" s="14">
+      <c r="O28" s="13">
         <v>7.4</v>
       </c>
-      <c r="P28" s="14">
+      <c r="P28" s="13">
         <v>7.4</v>
       </c>
-      <c r="Q28" s="14">
+      <c r="Q28" s="13">
         <v>7.3</v>
       </c>
       <c r="R28" s="10">
@@ -2197,53 +2348,60 @@
       <c r="S28" s="10">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T28" s="10">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14">
+      <c r="D29" s="13">
+        <v>13.457590538065226</v>
+      </c>
+      <c r="E29" s="13">
+        <v>11.45032600636536</v>
+      </c>
+      <c r="F29" s="13">
         <v>9.6</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="13">
         <v>9.3000000000000007</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="13">
         <v>9.5</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29" s="13">
         <v>10.5</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J29" s="13">
         <v>9.1</v>
       </c>
-      <c r="K29" s="14">
+      <c r="K29" s="13">
         <v>8.4</v>
       </c>
-      <c r="L29" s="14">
+      <c r="L29" s="13">
         <v>8.9</v>
       </c>
-      <c r="M29" s="14">
+      <c r="M29" s="13">
         <v>8</v>
       </c>
-      <c r="N29" s="14">
+      <c r="N29" s="13">
         <v>7.4</v>
       </c>
-      <c r="O29" s="14">
+      <c r="O29" s="13">
         <v>7.3</v>
       </c>
-      <c r="P29" s="14">
+      <c r="P29" s="13">
         <v>6.1</v>
       </c>
-      <c r="Q29" s="14">
+      <c r="Q29" s="13">
         <v>5.3</v>
       </c>
       <c r="R29" s="10">
@@ -2252,57 +2410,60 @@
       <c r="S29" s="10">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="T29" s="10">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="C30" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="14">
+      <c r="D30" s="21">
+        <v>8.6646289120479594</v>
+      </c>
+      <c r="E30" s="21">
+        <v>8.5916241446785637</v>
+      </c>
+      <c r="F30" s="21">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G30" s="21">
+        <v>10</v>
+      </c>
+      <c r="H30" s="21">
+        <v>9.6</v>
+      </c>
+      <c r="I30" s="21">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E30" s="14">
-        <v>8.6</v>
-      </c>
-      <c r="F30" s="14">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="G30" s="14">
-        <v>10</v>
-      </c>
-      <c r="H30" s="14">
-        <v>9.6</v>
-      </c>
-      <c r="I30" s="14">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="J30" s="14">
+      <c r="J30" s="21">
         <v>9.4</v>
       </c>
-      <c r="K30" s="14">
+      <c r="K30" s="21">
         <v>8.9</v>
       </c>
-      <c r="L30" s="14">
+      <c r="L30" s="21">
         <v>8.1</v>
       </c>
-      <c r="M30" s="14">
+      <c r="M30" s="21">
         <v>7.7</v>
       </c>
-      <c r="N30" s="14">
+      <c r="N30" s="21">
         <v>7.3</v>
       </c>
-      <c r="O30" s="14">
+      <c r="O30" s="21">
         <v>6.7</v>
       </c>
-      <c r="P30" s="14">
+      <c r="P30" s="21">
         <v>5.9</v>
       </c>
-      <c r="Q30" s="14">
+      <c r="Q30" s="21">
         <v>5</v>
       </c>
       <c r="R30" s="11">
@@ -2311,53 +2472,60 @@
       <c r="S30" s="11">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T30" s="11">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14">
+      <c r="D31" s="13">
+        <v>8.1050931860107749</v>
+      </c>
+      <c r="E31" s="13">
+        <v>8.6493504632107179</v>
+      </c>
+      <c r="F31" s="13">
         <v>9.6</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="13">
         <v>10.6</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H31" s="13">
         <v>10.6</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I31" s="13">
         <v>9.6999999999999993</v>
       </c>
-      <c r="J31" s="14">
+      <c r="J31" s="13">
         <v>9.6999999999999993</v>
       </c>
-      <c r="K31" s="14">
+      <c r="K31" s="13">
         <v>9.5</v>
       </c>
-      <c r="L31" s="14">
+      <c r="L31" s="13">
         <v>8.4</v>
       </c>
-      <c r="M31" s="14">
+      <c r="M31" s="13">
         <v>7.6</v>
       </c>
-      <c r="N31" s="14">
+      <c r="N31" s="13">
         <v>7.9</v>
       </c>
-      <c r="O31" s="14">
+      <c r="O31" s="13">
         <v>5</v>
       </c>
-      <c r="P31" s="14">
+      <c r="P31" s="13">
         <v>5.5</v>
       </c>
-      <c r="Q31" s="14">
+      <c r="Q31" s="13">
         <v>4.5999999999999996</v>
       </c>
       <c r="R31" s="10">
@@ -2366,53 +2534,60 @@
       <c r="S31" s="10">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T31" s="10">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B32" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14">
+      <c r="D32" s="13">
+        <v>9.0993299458045858</v>
+      </c>
+      <c r="E32" s="13">
+        <v>8.5427799172728864</v>
+      </c>
+      <c r="F32" s="13">
         <v>10.7</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G32" s="13">
         <v>9.5</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="13">
         <v>8.6999999999999993</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I32" s="13">
         <v>7.8</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J32" s="13">
         <v>9.3000000000000007</v>
       </c>
-      <c r="K32" s="14">
+      <c r="K32" s="13">
         <v>8.4</v>
       </c>
-      <c r="L32" s="14">
+      <c r="L32" s="13">
         <v>7.7</v>
       </c>
-      <c r="M32" s="14">
+      <c r="M32" s="13">
         <v>7.8</v>
       </c>
-      <c r="N32" s="14">
+      <c r="N32" s="13">
         <v>6.7</v>
       </c>
-      <c r="O32" s="14">
+      <c r="O32" s="13">
         <v>8.1999999999999993</v>
       </c>
-      <c r="P32" s="14">
+      <c r="P32" s="13">
         <v>6.2</v>
       </c>
-      <c r="Q32" s="14">
+      <c r="Q32" s="13">
         <v>5.4</v>
       </c>
       <c r="R32" s="10">
@@ -2421,53 +2596,60 @@
       <c r="S32" s="10">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="T32" s="10">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="C33" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="G33" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14">
+      <c r="H33" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="21">
         <v>4.5999999999999996</v>
       </c>
-      <c r="K33" s="14">
+      <c r="K33" s="21">
         <v>4.2</v>
       </c>
-      <c r="L33" s="14">
+      <c r="L33" s="21">
         <v>3.9</v>
       </c>
-      <c r="M33" s="14">
+      <c r="M33" s="21">
         <v>3.6</v>
       </c>
-      <c r="N33" s="14">
+      <c r="N33" s="21">
         <v>3.5</v>
       </c>
-      <c r="O33" s="14">
+      <c r="O33" s="21">
         <v>3</v>
       </c>
-      <c r="P33" s="14">
+      <c r="P33" s="21">
         <v>2.5</v>
       </c>
-      <c r="Q33" s="14">
+      <c r="Q33" s="21">
         <v>2.8</v>
       </c>
       <c r="R33" s="11">
@@ -2476,53 +2658,60 @@
       <c r="S33" s="11">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T33" s="11">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B34" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14">
+      <c r="H34" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" s="13">
         <v>3.8</v>
       </c>
-      <c r="K34" s="14">
+      <c r="K34" s="13">
         <v>5.2</v>
       </c>
-      <c r="L34" s="14">
+      <c r="L34" s="13">
         <v>5.6</v>
       </c>
-      <c r="M34" s="14">
+      <c r="M34" s="13">
         <v>6.3</v>
       </c>
-      <c r="N34" s="14">
+      <c r="N34" s="13">
         <v>4.5</v>
       </c>
-      <c r="O34" s="14">
+      <c r="O34" s="13">
         <v>3.5</v>
       </c>
-      <c r="P34" s="14">
+      <c r="P34" s="13">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Q34" s="14">
+      <c r="Q34" s="13">
         <v>3.7</v>
       </c>
       <c r="R34" s="10">
@@ -2531,53 +2720,60 @@
       <c r="S34" s="10">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T34" s="10">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="G35" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14">
+      <c r="H35" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="13">
         <v>5</v>
       </c>
-      <c r="K35" s="14">
+      <c r="K35" s="13">
         <v>3.8</v>
       </c>
-      <c r="L35" s="14">
+      <c r="L35" s="13">
         <v>3.1</v>
       </c>
-      <c r="M35" s="14">
+      <c r="M35" s="13">
         <v>2.5</v>
       </c>
-      <c r="N35" s="14">
+      <c r="N35" s="13">
         <v>3</v>
       </c>
-      <c r="O35" s="14">
+      <c r="O35" s="13">
         <v>2.7</v>
       </c>
-      <c r="P35" s="14">
+      <c r="P35" s="13">
         <v>1.5</v>
       </c>
-      <c r="Q35" s="14">
+      <c r="Q35" s="13">
         <v>2.2999999999999998</v>
       </c>
       <c r="R35" s="10">
@@ -2586,35 +2782,39 @@
       <c r="S35" s="10">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+      <c r="T35" s="10">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="10" t="s">
+      <c r="B36" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="19"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="18"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>0</v>
       </c>
@@ -2624,46 +2824,46 @@
       <c r="C37" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="13">
         <v>15.1</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="13">
         <v>13.3</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="13">
         <v>16.8</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G37" s="13">
         <v>19.072445256255346</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H37" s="13">
         <v>18.899999999999999</v>
       </c>
-      <c r="I37" s="14">
+      <c r="I37" s="13">
         <v>21.3</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J37" s="13">
         <v>16.2</v>
       </c>
-      <c r="K37" s="14">
+      <c r="K37" s="13">
         <v>17.7</v>
       </c>
-      <c r="L37" s="14">
+      <c r="L37" s="13">
         <v>17.3</v>
       </c>
-      <c r="M37" s="14">
+      <c r="M37" s="13">
         <v>19.899999999999999</v>
       </c>
-      <c r="N37" s="14">
+      <c r="N37" s="13">
         <v>18.3</v>
       </c>
-      <c r="O37" s="14">
+      <c r="O37" s="13">
         <v>13.9</v>
       </c>
-      <c r="P37" s="14">
+      <c r="P37" s="13">
         <v>13.9</v>
       </c>
-      <c r="Q37" s="14">
+      <c r="Q37" s="13">
         <v>13.7</v>
       </c>
       <c r="R37" s="10">
@@ -2672,8 +2872,11 @@
       <c r="S37" s="10">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T37" s="10">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>1</v>
       </c>
@@ -2683,46 +2886,46 @@
       <c r="C38" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D38" s="13">
         <v>10.199999999999999</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="13">
         <v>11.4</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F38" s="13">
         <v>12.7</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G38" s="13">
         <v>12.397261188849056</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H38" s="13">
         <v>12.5</v>
       </c>
-      <c r="I38" s="14">
+      <c r="I38" s="13">
         <v>11.9</v>
       </c>
-      <c r="J38" s="14">
+      <c r="J38" s="13">
         <v>10.4</v>
       </c>
-      <c r="K38" s="14">
+      <c r="K38" s="13">
         <v>10.199999999999999</v>
       </c>
-      <c r="L38" s="14">
+      <c r="L38" s="13">
         <v>10.5</v>
       </c>
-      <c r="M38" s="14">
+      <c r="M38" s="13">
         <v>10.4</v>
       </c>
-      <c r="N38" s="14">
+      <c r="N38" s="13">
         <v>10.199999999999999</v>
       </c>
-      <c r="O38" s="14">
+      <c r="O38" s="13">
         <v>9.5</v>
       </c>
-      <c r="P38" s="14">
+      <c r="P38" s="13">
         <v>9.3000000000000007</v>
       </c>
-      <c r="Q38" s="14">
+      <c r="Q38" s="13">
         <v>8.9</v>
       </c>
       <c r="R38" s="10">
@@ -2731,8 +2934,11 @@
       <c r="S38" s="10">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T38" s="10">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>2</v>
       </c>
@@ -2742,46 +2948,46 @@
       <c r="C39" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="13">
         <v>7.2</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="13">
         <v>7.3</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="13">
         <v>6.1</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G39" s="13">
         <v>6.1985624832418429</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H39" s="13">
         <v>6.5</v>
       </c>
-      <c r="I39" s="14">
+      <c r="I39" s="13">
         <v>7</v>
       </c>
-      <c r="J39" s="14">
+      <c r="J39" s="13">
         <v>7.2</v>
       </c>
-      <c r="K39" s="14">
+      <c r="K39" s="13">
         <v>6.7</v>
       </c>
-      <c r="L39" s="14">
+      <c r="L39" s="13">
         <v>6.2</v>
       </c>
-      <c r="M39" s="14">
+      <c r="M39" s="13">
         <v>5.9</v>
       </c>
-      <c r="N39" s="14">
+      <c r="N39" s="13">
         <v>5.4</v>
       </c>
-      <c r="O39" s="14">
+      <c r="O39" s="13">
         <v>4.5999999999999996</v>
       </c>
-      <c r="P39" s="14">
+      <c r="P39" s="13">
         <v>4</v>
       </c>
-      <c r="Q39" s="14">
+      <c r="Q39" s="13">
         <v>5.0999999999999996</v>
       </c>
       <c r="R39" s="10">
@@ -2790,8 +2996,11 @@
       <c r="S39" s="10">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T39" s="10">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>3</v>
       </c>
@@ -2801,46 +3010,46 @@
       <c r="C40" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D40" s="13">
         <v>6.2</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E40" s="13">
         <v>6.2</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F40" s="13">
         <v>5.2</v>
       </c>
-      <c r="G40" s="14">
+      <c r="G40" s="13">
         <v>5.9017604859498176</v>
       </c>
-      <c r="H40" s="14">
+      <c r="H40" s="13">
         <v>5.5</v>
       </c>
-      <c r="I40" s="14">
+      <c r="I40" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J40" s="14">
+      <c r="J40" s="13">
         <v>6.4</v>
       </c>
-      <c r="K40" s="14">
+      <c r="K40" s="13">
         <v>6.7</v>
       </c>
-      <c r="L40" s="14">
+      <c r="L40" s="13">
         <v>5.8</v>
       </c>
-      <c r="M40" s="14">
+      <c r="M40" s="13">
         <v>5.3</v>
       </c>
-      <c r="N40" s="14">
+      <c r="N40" s="13">
         <v>5.3</v>
       </c>
-      <c r="O40" s="14">
+      <c r="O40" s="13">
         <v>4.3</v>
       </c>
-      <c r="P40" s="14">
+      <c r="P40" s="13">
         <v>3.6</v>
       </c>
-      <c r="Q40" s="14">
+      <c r="Q40" s="13">
         <v>4.4000000000000004</v>
       </c>
       <c r="R40" s="10">
@@ -2849,8 +3058,11 @@
       <c r="S40" s="10">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T40" s="10">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>4</v>
       </c>
@@ -2860,46 +3072,46 @@
       <c r="C41" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D41" s="13">
         <v>5.7</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="13">
         <v>4.5</v>
       </c>
-      <c r="F41" s="14">
+      <c r="F41" s="13">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G41" s="13">
         <v>4.8232134601438839</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H41" s="13">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I41" s="14">
+      <c r="I41" s="13">
         <v>4.8</v>
       </c>
-      <c r="J41" s="14">
+      <c r="J41" s="13">
         <v>6.1</v>
       </c>
-      <c r="K41" s="14">
+      <c r="K41" s="13">
         <v>5.0999999999999996</v>
       </c>
-      <c r="L41" s="14">
+      <c r="L41" s="13">
         <v>4.2</v>
       </c>
-      <c r="M41" s="14">
+      <c r="M41" s="13">
         <v>3.5</v>
       </c>
-      <c r="N41" s="14">
+      <c r="N41" s="13">
         <v>3.8</v>
       </c>
-      <c r="O41" s="14">
+      <c r="O41" s="13">
         <v>4.2</v>
       </c>
-      <c r="P41" s="14">
+      <c r="P41" s="13">
         <v>3.1</v>
       </c>
-      <c r="Q41" s="14">
+      <c r="Q41" s="13">
         <v>3.1</v>
       </c>
       <c r="R41" s="10">
@@ -2908,8 +3120,11 @@
       <c r="S41" s="10">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T41" s="10">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>5</v>
       </c>
@@ -2919,46 +3134,46 @@
       <c r="C42" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D42" s="13">
         <v>2.9</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="13">
         <v>0.8</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F42" s="13">
         <v>1.5</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G42" s="13">
         <v>2.3199146814254195</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H42" s="13">
         <v>2.5</v>
       </c>
-      <c r="I42" s="14">
+      <c r="I42" s="13">
         <v>2.8</v>
       </c>
-      <c r="J42" s="14">
+      <c r="J42" s="13">
         <v>3.2</v>
       </c>
-      <c r="K42" s="14">
+      <c r="K42" s="13">
         <v>2.6</v>
       </c>
-      <c r="L42" s="14">
+      <c r="L42" s="13">
         <v>2.8</v>
       </c>
-      <c r="M42" s="14">
+      <c r="M42" s="13">
         <v>1.3</v>
       </c>
-      <c r="N42" s="14">
+      <c r="N42" s="13">
         <v>1.6</v>
       </c>
-      <c r="O42" s="14">
+      <c r="O42" s="13">
         <v>2.7</v>
       </c>
-      <c r="P42" s="14">
+      <c r="P42" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q42" s="14">
+      <c r="Q42" s="13">
         <v>1.8</v>
       </c>
       <c r="R42" s="10">
@@ -2967,63 +3182,69 @@
       <c r="S42" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="15" t="s">
+      <c r="T42" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F43" s="16" t="s">
+      <c r="F43" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G43" s="16">
+      <c r="G43" s="15">
         <v>0.56102322326319332</v>
       </c>
-      <c r="H43" s="16">
+      <c r="H43" s="15">
         <v>0.7</v>
       </c>
-      <c r="I43" s="16" t="s">
+      <c r="I43" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J43" s="16">
+      <c r="J43" s="15">
         <v>1.6</v>
       </c>
-      <c r="K43" s="16">
+      <c r="K43" s="15">
         <v>2.8</v>
       </c>
-      <c r="L43" s="16">
+      <c r="L43" s="15">
         <v>1.4</v>
       </c>
-      <c r="M43" s="16">
+      <c r="M43" s="15">
         <v>0.9</v>
       </c>
-      <c r="N43" s="16">
+      <c r="N43" s="15">
         <v>0.3</v>
       </c>
-      <c r="O43" s="16" t="s">
+      <c r="O43" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="P43" s="16" t="s">
+      <c r="P43" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="Q43" s="16">
+      <c r="Q43" s="15">
         <v>0.6</v>
       </c>
-      <c r="R43" s="18" t="s">
+      <c r="R43" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="S43" s="18" t="s">
+      <c r="S43" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="T43" s="17" t="s">
         <v>7</v>
       </c>
     </row>
